--- a/漫展信息/苏州-漫展信息.xlsx
+++ b/漫展信息/苏州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3154</v>
+        <v>3172</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5828</v>
+        <v>5838</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8760</v>
+        <v>8764</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5343</v>
+        <v>5344</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4451</v>
+        <v>4453</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1054,6 +1054,50 @@
           <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
         </is>
       </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1066,7 +1110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,6 +1162,50 @@
           <t>Link</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1130,7 +1218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,6 +1270,50 @@
           <t>Link</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1194,7 +1326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1395,7 +1527,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3154</v>
+        <v>3172</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1436,7 +1568,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5828</v>
+        <v>5838</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1477,7 +1609,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1641,7 +1773,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8760</v>
+        <v>8764</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1723,7 +1855,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1764,7 +1896,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5343</v>
+        <v>5344</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1805,7 +1937,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4451</v>
+        <v>4453</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1820,6 +1952,50 @@
           <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
         </is>
       </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/漫展信息/苏州-漫展信息.xlsx
+++ b/漫展信息/苏州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,12 +506,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1564</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>1684</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -547,12 +545,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>207</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>228</v>
+      </c>
+      <c r="G3" t="n">
+        <v>49.9</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -588,12 +584,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>193</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>215</v>
+      </c>
+      <c r="G4" t="n">
+        <v>58</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -615,33 +609,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
+          <t>苏州大道东688号 苏州国际博览中心</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 20:00</t>
+          <t>2024.02.03 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3172</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+        <v>6972</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80426&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80084&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -651,12 +643,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -666,23 +658,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.02.03 09:30-02.04 17:00</t>
+          <t>2024.02.04 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5838</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>404</v>
+      </c>
+      <c r="G6" t="n">
+        <v>258</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80084&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80398&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -692,38 +682,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024.02.14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
+          <t>常熟·CDW·动漫展02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>苏州大道东688号 苏州国际博览中心</t>
+          <t>常熟国际展览中心 国际展览中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.02.04 09:30-02.04 17:00</t>
+          <t>2024.02.14 09:00-02.15 17:30</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>299</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
+        <v>274</v>
+      </c>
+      <c r="G7" t="n">
+        <v>55</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80398&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -738,33 +726,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>常熟·CDW·动漫展02</t>
+          <t>常熟·漫魂动漫游戏展01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>常熟国际展览中心 国际展览中心</t>
+          <t>虞山北路258号 星程酒店(长江路店)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.15 17:30</t>
+          <t>2024.02.14 09:00-02.14 21:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+        <v>65</v>
+      </c>
+      <c r="G8" t="n">
+        <v>50</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -779,33 +765,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>常熟·漫魂动漫游戏展01</t>
+          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>虞山北路258号 星程酒店(长江路店)</t>
+          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.14 21:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>49</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -815,38 +799,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
+          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 16:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>8954</v>
+      </c>
+      <c r="G10" t="n">
+        <v>60</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -856,38 +838,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
+          <t>苏州·第五届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
+          <t>清禾路886号 尹山湖大剧院</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8764</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>2369</v>
+      </c>
+      <c r="G11" t="n">
+        <v>68</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -897,38 +877,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.02.25</t>
+          <t>2024.04.21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>苏州·第五届次元鹿角动漫游戏展</t>
+          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>清禾路886号 尹山湖大剧院</t>
+          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.02.25 10:00-02.25 17:00</t>
+          <t>2024.04.21 10:00-04.21 21:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2353</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>280</v>
+      </c>
+      <c r="G12" t="n">
+        <v>48.3</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -938,38 +916,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.04.21</t>
+          <t>2024.05.01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+          <t>昆山·第十二届理想乡动漫游戏展</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.04.21 10:00-04.21 21:00</t>
+          <t>2024.05.01 10:00-05.03 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>243</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>7466</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -984,33 +960,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展</t>
+          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.03 17:00</t>
+          <t>2024.05.01 10:00-05.02 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5344</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>预售中</t>
-        </is>
+        <v>10395</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1018,42 +992,14 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2024.05.01</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>金山南路288号 广电国际会展中心</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4453</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1072,7 +1018,12 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -1080,24 +1031,6 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1326,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1404,12 +1337,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1564</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>1684</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1445,12 +1376,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>207</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>228</v>
+      </c>
+      <c r="G3" t="n">
+        <v>49.9</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1486,12 +1415,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>193</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>215</v>
+      </c>
+      <c r="G4" t="n">
+        <v>58</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -1513,33 +1440,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
+          <t>苏州大道东688号 苏州国际博览中心</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 20:00</t>
+          <t>2024.02.03 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3172</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+        <v>6972</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80426&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80084&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1549,12 +1474,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1564,23 +1489,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.02.03 09:30-02.04 17:00</t>
+          <t>2024.02.04 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5838</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>404</v>
+      </c>
+      <c r="G6" t="n">
+        <v>258</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80084&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80398&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1590,38 +1513,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024.02.14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
+          <t>常熟·CDW·动漫展02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>苏州大道东688号 苏州国际博览中心</t>
+          <t>常熟国际展览中心 国际展览中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.02.04 09:30-02.04 17:00</t>
+          <t>2024.02.14 09:00-02.15 17:30</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>299</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
+        <v>274</v>
+      </c>
+      <c r="G7" t="n">
+        <v>55</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80398&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1636,33 +1557,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>常熟·CDW·动漫展02</t>
+          <t>常熟·漫魂动漫游戏展01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>常熟国际展览中心 国际展览中心</t>
+          <t>虞山北路258号 星程酒店(长江路店)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.15 17:30</t>
+          <t>2024.02.14 09:00-02.14 21:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+        <v>65</v>
+      </c>
+      <c r="G8" t="n">
+        <v>50</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1677,33 +1596,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>常熟·漫魂动漫游戏展01</t>
+          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>虞山北路258号 星程酒店(长江路店)</t>
+          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.14 21:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>49</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1713,38 +1630,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
+          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 16:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>8954</v>
+      </c>
+      <c r="G10" t="n">
+        <v>60</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1754,38 +1669,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
+          <t>苏州·第五届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
+          <t>清禾路886号 尹山湖大剧院</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8764</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>2369</v>
+      </c>
+      <c r="G11" t="n">
+        <v>68</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1795,38 +1708,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.02.25</t>
+          <t>2024.04.21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>苏州·第五届次元鹿角动漫游戏展</t>
+          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>清禾路886号 尹山湖大剧院</t>
+          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.02.25 10:00-02.25 17:00</t>
+          <t>2024.04.21 10:00-04.21 21:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2353</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>280</v>
+      </c>
+      <c r="G12" t="n">
+        <v>48.3</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1836,38 +1747,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.04.21</t>
+          <t>2024.05.01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+          <t>昆山·第十二届理想乡动漫游戏展</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.04.21 10:00-04.21 21:00</t>
+          <t>2024.05.01 10:00-05.03 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>243</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>7466</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1882,33 +1791,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展</t>
+          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.03 17:00</t>
+          <t>2024.05.01 10:00-05.02 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5344</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>预售中</t>
-        </is>
+        <v>10395</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1916,42 +1823,14 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2024.05.01</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>金山南路288号 广电国际会展中心</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4453</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1970,7 +1849,12 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -1979,24 +1863,6 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/漫展信息/苏州-漫展信息.xlsx
+++ b/漫展信息/苏州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,25 +457,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -500,21 +505,22 @@
           <t>清禾路886号 尹山湖大剧院</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024.01.21 10:30-01.21 17:00</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1684</v>
-      </c>
       <c r="G2" t="n">
+        <v>1848</v>
+      </c>
+      <c r="H2" t="n">
         <v>60</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80053&amp;msource=Msearch_colligation</t>
         </is>
@@ -539,21 +545,22 @@
           <t>绿地大道258号游站未来城2号楼 魔之塔</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>2024.01.27 10:00-01.27 19:00</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>228</v>
-      </c>
       <c r="G3" t="n">
+        <v>257</v>
+      </c>
+      <c r="H3" t="n">
         <v>49.9</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79124&amp;msource=Msearch_colligation</t>
         </is>
@@ -578,21 +585,22 @@
           <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>2024.01.28 10:00-01.28 21:00</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>215</v>
-      </c>
       <c r="G4" t="n">
+        <v>246</v>
+      </c>
+      <c r="H4" t="n">
         <v>58</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79002&amp;msource=Msearch_colligation</t>
         </is>
@@ -617,21 +625,22 @@
           <t>苏州大道东688号 苏州国际博览中心</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>2024.02.03 09:30-02.04 17:00</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>6972</v>
-      </c>
       <c r="G5" t="n">
+        <v>8208</v>
+      </c>
+      <c r="H5" t="n">
         <v>60</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80084&amp;msource=Msearch_colligation</t>
         </is>
@@ -656,21 +665,24 @@
           <t>苏州大道东688号 苏州国际博览中心</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>2024.02.04 09:30-02.04 17:00</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>404</v>
-      </c>
       <c r="G6" t="n">
-        <v>258</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>568</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80398&amp;msource=Msearch_colligation</t>
         </is>
@@ -695,21 +707,22 @@
           <t>常熟国际展览中心 国际展览中心</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>2024.02.14 09:00-02.15 17:30</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>274</v>
-      </c>
       <c r="G7" t="n">
+        <v>587</v>
+      </c>
+      <c r="H7" t="n">
         <v>55</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
         </is>
@@ -734,21 +747,22 @@
           <t>虞山北路258号 星程酒店(长江路店)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>2024.02.14 09:00-02.14 21:00</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>65</v>
-      </c>
       <c r="G8" t="n">
+        <v>85</v>
+      </c>
+      <c r="H8" t="n">
         <v>50</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
         </is>
@@ -773,21 +787,22 @@
           <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>17</v>
-      </c>
       <c r="G9" t="n">
+        <v>21</v>
+      </c>
+      <c r="H9" t="n">
         <v>49</v>
       </c>
-      <c r="H9" t="b">
+      <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
         </is>
@@ -812,21 +827,22 @@
           <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>8954</v>
-      </c>
       <c r="G10" t="n">
+        <v>9196</v>
+      </c>
+      <c r="H10" t="n">
         <v>60</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
         </is>
@@ -851,21 +867,22 @@
           <t>清禾路886号 尹山湖大剧院</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>2369</v>
-      </c>
       <c r="G11" t="n">
+        <v>2390</v>
+      </c>
+      <c r="H11" t="n">
         <v>68</v>
       </c>
-      <c r="H11" t="b">
+      <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
         </is>
@@ -877,36 +894,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.04.21</t>
+          <t>2024.03.08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+          <t>苏州·国风宠物-cosplay展</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024.04.21 10:00-04.21 21:00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>280</v>
+          <t>木渎金山南路288号 苏州国际影视娱乐城</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024.03.08 09:00-03.10 17:30</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="H12" t="b">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>65</v>
+      </c>
+      <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80635&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -916,36 +934,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024.04.13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展</t>
+          <t>苏州·绘时国乙1.0-秩序之外</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2024.05.01 10:00-05.03 17:00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7466</v>
+          <t>石路步行街永福桥浜15号 银河广场</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024.04.13 13:30-04.13 20:00</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+        <v>25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>78</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80789&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -955,36 +974,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024.04.21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
+          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10395</v>
+          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024.04.21 10:00-04.21 21:00</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
+        <v>317</v>
+      </c>
+      <c r="H14" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -992,38 +1012,87 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024.05.01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.03 17:00</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>10122</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024.05.01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>金山南路288号 广电国际会展中心</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.02 17:00</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10548</v>
+      </c>
+      <c r="H16" t="n">
+        <v>60</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -1031,6 +1100,40 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1043,7 +1146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,25 +1175,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -1108,6 +1216,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1121,6 +1230,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1139,6 +1249,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1151,7 +1262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1180,25 +1291,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -1216,6 +1332,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1229,6 +1346,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1247,6 +1365,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1259,7 +1378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,25 +1407,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -1331,21 +1455,22 @@
           <t>清禾路886号 尹山湖大剧院</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024.01.21 10:30-01.21 17:00</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1684</v>
-      </c>
       <c r="G2" t="n">
+        <v>1848</v>
+      </c>
+      <c r="H2" t="n">
         <v>60</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80053&amp;msource=Msearch_colligation</t>
         </is>
@@ -1370,21 +1495,22 @@
           <t>绿地大道258号游站未来城2号楼 魔之塔</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>2024.01.27 10:00-01.27 19:00</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>228</v>
-      </c>
       <c r="G3" t="n">
+        <v>257</v>
+      </c>
+      <c r="H3" t="n">
         <v>49.9</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79124&amp;msource=Msearch_colligation</t>
         </is>
@@ -1409,21 +1535,22 @@
           <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>2024.01.28 10:00-01.28 21:00</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>215</v>
-      </c>
       <c r="G4" t="n">
+        <v>246</v>
+      </c>
+      <c r="H4" t="n">
         <v>58</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79002&amp;msource=Msearch_colligation</t>
         </is>
@@ -1448,21 +1575,22 @@
           <t>苏州大道东688号 苏州国际博览中心</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>2024.02.03 09:30-02.04 17:00</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>6972</v>
-      </c>
       <c r="G5" t="n">
+        <v>8208</v>
+      </c>
+      <c r="H5" t="n">
         <v>60</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80084&amp;msource=Msearch_colligation</t>
         </is>
@@ -1487,21 +1615,24 @@
           <t>苏州大道东688号 苏州国际博览中心</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>2024.02.04 09:30-02.04 17:00</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>404</v>
-      </c>
       <c r="G6" t="n">
-        <v>258</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>568</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80398&amp;msource=Msearch_colligation</t>
         </is>
@@ -1526,21 +1657,22 @@
           <t>常熟国际展览中心 国际展览中心</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>2024.02.14 09:00-02.15 17:30</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>274</v>
-      </c>
       <c r="G7" t="n">
+        <v>587</v>
+      </c>
+      <c r="H7" t="n">
         <v>55</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
         </is>
@@ -1565,21 +1697,22 @@
           <t>虞山北路258号 星程酒店(长江路店)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>2024.02.14 09:00-02.14 21:00</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>65</v>
-      </c>
       <c r="G8" t="n">
+        <v>85</v>
+      </c>
+      <c r="H8" t="n">
         <v>50</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
         </is>
@@ -1604,21 +1737,22 @@
           <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>17</v>
-      </c>
       <c r="G9" t="n">
+        <v>21</v>
+      </c>
+      <c r="H9" t="n">
         <v>49</v>
       </c>
-      <c r="H9" t="b">
+      <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
         </is>
@@ -1643,21 +1777,22 @@
           <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>8954</v>
-      </c>
       <c r="G10" t="n">
+        <v>9196</v>
+      </c>
+      <c r="H10" t="n">
         <v>60</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
         </is>
@@ -1682,21 +1817,22 @@
           <t>清禾路886号 尹山湖大剧院</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>2369</v>
-      </c>
       <c r="G11" t="n">
+        <v>2390</v>
+      </c>
+      <c r="H11" t="n">
         <v>68</v>
       </c>
-      <c r="H11" t="b">
+      <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
         </is>
@@ -1708,36 +1844,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.04.21</t>
+          <t>2024.03.08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+          <t>苏州·国风宠物-cosplay展</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024.04.21 10:00-04.21 21:00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>280</v>
+          <t>木渎金山南路288号 苏州国际影视娱乐城</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024.03.08 09:00-03.10 17:30</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="H12" t="b">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>65</v>
+      </c>
+      <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80635&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1747,36 +1884,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024.04.13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展</t>
+          <t>苏州·绘时国乙1.0-秩序之外</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2024.05.01 10:00-05.03 17:00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7466</v>
+          <t>石路步行街永福桥浜15号 银河广场</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024.04.13 13:30-04.13 20:00</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+        <v>25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>78</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80789&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1786,36 +1924,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024.04.21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
+          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10395</v>
+          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024.04.21 10:00-04.21 21:00</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
+        <v>317</v>
+      </c>
+      <c r="H14" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1823,38 +1962,87 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024.05.01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.03 17:00</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>10122</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024.05.01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>金山南路288号 广电国际会展中心</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.02 17:00</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10548</v>
+      </c>
+      <c r="H16" t="n">
+        <v>60</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -1862,6 +2050,40 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/漫展信息/苏州-漫展信息.xlsx
+++ b/漫展信息/苏州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,37 +492,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>苏州·世纪幻想动漫游戏展</t>
+          <t>昆山·“不是！你有病吧！”主题展（取消）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>清禾路886号 尹山湖大剧院</t>
+          <t>绿地大道258号游站未来城2号楼 魔之塔</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024.01.21 10:30-01.21 17:00</t>
+          <t>2024.01.27 10:00-01.27 19:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1848</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60</v>
+        <v>268</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80053&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79124&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -532,37 +534,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>昆山·“不是！你有病吧！”主题展</t>
+          <t>苏州.第二届THO 赤维极陵</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>绿地大道258号游站未来城2号楼 魔之塔</t>
+          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 19:00</t>
+          <t>2024.01.28 10:00-01.28 21:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="H3" t="n">
-        <v>49.9</v>
+        <v>58</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79124&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79002&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -572,37 +574,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>苏州.第二届THO 赤维极陵</t>
+          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
+          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 21:00</t>
+          <t>2024.02.03 10:00-02.03 20:00</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>246</v>
+        <v>10699</v>
       </c>
       <c r="H4" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79002&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80426&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -612,7 +614,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,7 +634,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8208</v>
+        <v>9418</v>
       </c>
       <c r="H5" t="n">
         <v>60</v>
@@ -652,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -672,7 +674,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -694,37 +696,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>常熟·CDW·动漫展02</t>
+          <t>太仓·弇山夜宴</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>常熟国际展览中心 国际展览中心</t>
+          <t>城厢镇县府西街40号公园弄口 弇山园</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.15 17:30</t>
+          <t>2024.02.08 17:30-02.24 22:00</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>55</v>
+        <v>39.9</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81215&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -734,37 +736,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>常熟·漫魂动漫游戏展01</t>
+          <t>常熟·CDW·动漫展02</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>虞山北路258号 星程酒店(长江路店)</t>
+          <t>常熟国际展览中心 国际展览中心</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.14 21:00</t>
+          <t>2024.02.14 09:00-02.15 17:30</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>85</v>
+        <v>689</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -774,37 +776,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
+          <t>常熟·漫魂动漫游戏展01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
+          <t>虞山北路258号 星程酒店(长江路店)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 16:00</t>
+          <t>2024.02.14 09:00-02.14 21:00</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="H9" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -814,37 +816,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
+          <t>张家港·META萌元漫展</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
+          <t>杨舍镇福新路附近 喜福遇婚庆店</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>9196</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81189&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -854,37 +856,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.02.25</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>苏州·第五届次元鹿角动漫游戏展</t>
+          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>清禾路886号 尹山湖大剧院</t>
+          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024.02.25 10:00-02.25 17:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2390</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -894,37 +896,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.03.08</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>苏州·国风宠物-cosplay展</t>
+          <t>太仓·龙狮新春动漫节4.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>木渎金山南路288号 苏州国际影视娱乐城</t>
+          <t>滨河路126号 凯景世纪大酒店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024.03.08 09:00-03.10 17:30</t>
+          <t>2024.02.16 08:30-02.16 15:00</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80635&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81044&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -934,37 +936,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.04.13</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>苏州·绘时国乙1.0-秩序之外</t>
+          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>石路步行街永福桥浜15号 银河广场</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024.04.13 13:30-04.13 20:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>25</v>
+        <v>9472</v>
       </c>
       <c r="H13" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80789&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -974,37 +976,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.04.21</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+          <t>太仓·龙吟动漫游戏展</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+          <t>滨河路128号 凯景世纪大酒店(太仓滨河路店)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024.04.21 10:00-04.21 21:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>317</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>48.3</v>
+        <v>55</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81242&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1014,37 +1016,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展</t>
+          <t>苏州·第五届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+          <t>清禾路886号 尹山湖大剧院</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.03 17:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>10122</v>
+        <v>2422</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>68</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1054,37 +1056,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
+          <t>苏州·国风宠物-cosplay展</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
+          <t>木渎金山南路288号 苏州国际影视娱乐城</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
+          <t>2024.03.08 09:00-03.10 17:30</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>10548</v>
+        <v>28</v>
       </c>
       <c r="H16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80635&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1092,29 +1094,81 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>苏州·绘时国乙1.0-秩序之外</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>石路步行街永福桥浜15号 银河广场</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024.04.13 13:30-04.13 20:00</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>66</v>
+      </c>
+      <c r="H17" t="n">
+        <v>78</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80789&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024.04.21 10:00-04.21 21:00</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1122,18 +1176,366 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.03 17:00</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>10697</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>金山南路288号 广电国际会展中心</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.02 17:00</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>10718</v>
+      </c>
+      <c r="H20" t="n">
+        <v>65</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾北齐后主签售会</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81116&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾啊川签售会</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81100&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾漠小然签售会</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81119&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾葫芦岛老八签售会</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81118&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾沈辞签售会</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024.05.03 14:00-05.03 16:00</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81120&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾矮乐多aliga签售会</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024.05.03 14:00-05.03 16:00</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81114&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
 项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1378,7 +1780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,37 +1844,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>苏州·世纪幻想动漫游戏展</t>
+          <t>昆山·“不是！你有病吧！”主题展（取消）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>清禾路886号 尹山湖大剧院</t>
+          <t>绿地大道258号游站未来城2号楼 魔之塔</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024.01.21 10:30-01.21 17:00</t>
+          <t>2024.01.27 10:00-01.27 19:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1848</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60</v>
+        <v>268</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80053&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79124&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1482,37 +1886,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>昆山·“不是！你有病吧！”主题展</t>
+          <t>苏州.第二届THO 赤维极陵</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>绿地大道258号游站未来城2号楼 魔之塔</t>
+          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 19:00</t>
+          <t>2024.01.28 10:00-01.28 21:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="H3" t="n">
-        <v>49.9</v>
+        <v>58</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79124&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79002&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1522,37 +1926,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>苏州.第二届THO 赤维极陵</t>
+          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
+          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 21:00</t>
+          <t>2024.02.03 10:00-02.03 20:00</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>246</v>
+        <v>10701</v>
       </c>
       <c r="H4" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79002&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80426&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1582,7 +1986,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8208</v>
+        <v>9418</v>
       </c>
       <c r="H5" t="n">
         <v>60</v>
@@ -1602,7 +2006,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1622,7 +2026,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1644,37 +2048,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>常熟·CDW·动漫展02</t>
+          <t>太仓·弇山夜宴</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>常熟国际展览中心 国际展览中心</t>
+          <t>城厢镇县府西街40号公园弄口 弇山园</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.15 17:30</t>
+          <t>2024.02.08 17:30-02.24 22:00</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>55</v>
+        <v>39.9</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81215&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1684,37 +2088,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>常熟·漫魂动漫游戏展01</t>
+          <t>常熟·CDW·动漫展02</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>虞山北路258号 星程酒店(长江路店)</t>
+          <t>常熟国际展览中心 国际展览中心</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.14 21:00</t>
+          <t>2024.02.14 09:00-02.15 17:30</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>85</v>
+        <v>689</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1724,37 +2128,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
+          <t>常熟·漫魂动漫游戏展01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
+          <t>虞山北路258号 星程酒店(长江路店)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 16:00</t>
+          <t>2024.02.14 09:00-02.14 21:00</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="H9" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1764,37 +2168,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
+          <t>张家港·META萌元漫展</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
+          <t>杨舍镇福新路附近 喜福遇婚庆店</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>9196</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81189&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1804,37 +2208,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.02.25</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>苏州·第五届次元鹿角动漫游戏展</t>
+          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>清禾路886号 尹山湖大剧院</t>
+          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024.02.25 10:00-02.25 17:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2390</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1844,37 +2248,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.03.08</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>苏州·国风宠物-cosplay展</t>
+          <t>太仓·龙狮新春动漫节4.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>木渎金山南路288号 苏州国际影视娱乐城</t>
+          <t>滨河路126号 凯景世纪大酒店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024.03.08 09:00-03.10 17:30</t>
+          <t>2024.02.16 08:30-02.16 15:00</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80635&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81044&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1884,37 +2288,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.04.13</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>苏州·绘时国乙1.0-秩序之外</t>
+          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>石路步行街永福桥浜15号 银河广场</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024.04.13 13:30-04.13 20:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>25</v>
+        <v>9472</v>
       </c>
       <c r="H13" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80789&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1924,37 +2328,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.04.21</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+          <t>太仓·龙吟动漫游戏展</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+          <t>滨河路128号 凯景世纪大酒店(太仓滨河路店)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024.04.21 10:00-04.21 21:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>317</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>48.3</v>
+        <v>55</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81242&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1964,37 +2368,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展</t>
+          <t>苏州·第五届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+          <t>清禾路886号 尹山湖大剧院</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.03 17:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>10122</v>
+        <v>2422</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>68</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2004,37 +2408,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
+          <t>苏州·国风宠物-cosplay展</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
+          <t>木渎金山南路288号 苏州国际影视娱乐城</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
+          <t>2024.03.08 09:00-03.10 17:30</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>10548</v>
+        <v>28</v>
       </c>
       <c r="H16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80635&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2042,29 +2446,81 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>苏州·绘时国乙1.0-秩序之外</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>石路步行街永福桥浜15号 银河广场</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024.04.13 13:30-04.13 20:00</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>66</v>
+      </c>
+      <c r="H17" t="n">
+        <v>78</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80789&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024.04.21 10:00-04.21 21:00</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>361</v>
+      </c>
+      <c r="H18" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2072,18 +2528,366 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.03 17:00</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>10697</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>金山南路288号 广电国际会展中心</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.02 17:00</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>10718</v>
+      </c>
+      <c r="H20" t="n">
+        <v>65</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾北齐后主签售会</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81116&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾啊川签售会</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81100&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾漠小然签售会</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81119&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾葫芦岛老八签售会</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81118&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾沈辞签售会</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024.05.03 14:00-05.03 16:00</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81120&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾矮乐多aliga签售会</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024.05.03 14:00-05.03 16:00</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81114&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
 项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/漫展信息/苏州-漫展信息.xlsx
+++ b/漫展信息/苏州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -519,10 +514,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79124&amp;msource=Msearch_colligation</t>
         </is>
@@ -559,10 +551,7 @@
       <c r="H3" t="n">
         <v>58</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79002&amp;msource=Msearch_colligation</t>
         </is>
@@ -594,15 +583,12 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>10699</v>
+        <v>10720</v>
       </c>
       <c r="H4" t="n">
         <v>25</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80426&amp;msource=Msearch_colligation</t>
         </is>
@@ -634,15 +620,12 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9418</v>
+        <v>9440</v>
       </c>
       <c r="H5" t="n">
         <v>60</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80084&amp;msource=Msearch_colligation</t>
         </is>
@@ -681,10 +664,7 @@
           <t>已售罄</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80398&amp;msource=Msearch_colligation</t>
         </is>
@@ -721,10 +701,7 @@
       <c r="H7" t="n">
         <v>39.9</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81215&amp;msource=Msearch_colligation</t>
         </is>
@@ -756,15 +733,12 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H8" t="n">
         <v>55</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
         </is>
@@ -801,10 +775,7 @@
       <c r="H9" t="n">
         <v>50</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
         </is>
@@ -841,10 +812,7 @@
       <c r="H10" t="n">
         <v>20</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81189&amp;msource=Msearch_colligation</t>
         </is>
@@ -881,10 +849,7 @@
       <c r="H11" t="n">
         <v>49</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
         </is>
@@ -921,10 +886,7 @@
       <c r="H12" t="n">
         <v>45</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81044&amp;msource=Msearch_colligation</t>
         </is>
@@ -956,15 +918,12 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>9472</v>
+        <v>9478</v>
       </c>
       <c r="H13" t="n">
         <v>60</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
         </is>
@@ -1001,10 +960,7 @@
       <c r="H14" t="n">
         <v>55</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81242&amp;msource=Msearch_colligation</t>
         </is>
@@ -1036,15 +992,12 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="H15" t="n">
         <v>68</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
         </is>
@@ -1081,10 +1034,7 @@
       <c r="H16" t="n">
         <v>65</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80635&amp;msource=Msearch_colligation</t>
         </is>
@@ -1121,10 +1071,7 @@
       <c r="H17" t="n">
         <v>78</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80789&amp;msource=Msearch_colligation</t>
         </is>
@@ -1156,15 +1103,12 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
         </is>
@@ -1196,15 +1140,12 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>10697</v>
+        <v>10712</v>
       </c>
       <c r="H19" t="n">
         <v>0.1</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
         </is>
@@ -1236,15 +1177,12 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10718</v>
+        <v>10724</v>
       </c>
       <c r="H20" t="n">
         <v>65</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
         </is>
@@ -1281,10 +1219,7 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81116&amp;msource=Msearch_colligation</t>
         </is>
@@ -1321,10 +1256,7 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81100&amp;msource=Msearch_colligation</t>
         </is>
@@ -1361,10 +1293,7 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81119&amp;msource=Msearch_colligation</t>
         </is>
@@ -1401,10 +1330,7 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81118&amp;msource=Msearch_colligation</t>
         </is>
@@ -1441,10 +1367,7 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81120&amp;msource=Msearch_colligation</t>
         </is>
@@ -1481,10 +1404,7 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81114&amp;msource=Msearch_colligation</t>
         </is>
@@ -1502,7 +1422,6 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1516,7 +1435,6 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1535,7 +1453,6 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1548,7 +1465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1597,11 +1514,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -1618,7 +1530,6 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1632,7 +1543,6 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1651,7 +1561,6 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1664,7 +1573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,11 +1622,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -1734,7 +1638,6 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1748,7 +1651,6 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1767,7 +1669,6 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1780,7 +1681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,11 +1730,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -1871,10 +1767,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79124&amp;msource=Msearch_colligation</t>
         </is>
@@ -1911,10 +1804,7 @@
       <c r="H3" t="n">
         <v>58</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79002&amp;msource=Msearch_colligation</t>
         </is>
@@ -1946,15 +1836,12 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>10701</v>
+        <v>10720</v>
       </c>
       <c r="H4" t="n">
         <v>25</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80426&amp;msource=Msearch_colligation</t>
         </is>
@@ -1986,15 +1873,12 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9418</v>
+        <v>9440</v>
       </c>
       <c r="H5" t="n">
         <v>60</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80084&amp;msource=Msearch_colligation</t>
         </is>
@@ -2033,10 +1917,7 @@
           <t>已售罄</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80398&amp;msource=Msearch_colligation</t>
         </is>
@@ -2073,10 +1954,7 @@
       <c r="H7" t="n">
         <v>39.9</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81215&amp;msource=Msearch_colligation</t>
         </is>
@@ -2108,15 +1986,12 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H8" t="n">
         <v>55</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
         </is>
@@ -2153,10 +2028,7 @@
       <c r="H9" t="n">
         <v>50</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
         </is>
@@ -2193,10 +2065,7 @@
       <c r="H10" t="n">
         <v>20</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81189&amp;msource=Msearch_colligation</t>
         </is>
@@ -2233,10 +2102,7 @@
       <c r="H11" t="n">
         <v>49</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
         </is>
@@ -2273,10 +2139,7 @@
       <c r="H12" t="n">
         <v>45</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81044&amp;msource=Msearch_colligation</t>
         </is>
@@ -2308,15 +2171,12 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>9472</v>
+        <v>9478</v>
       </c>
       <c r="H13" t="n">
         <v>60</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
         </is>
@@ -2353,10 +2213,7 @@
       <c r="H14" t="n">
         <v>55</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81242&amp;msource=Msearch_colligation</t>
         </is>
@@ -2388,15 +2245,12 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="H15" t="n">
         <v>68</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
         </is>
@@ -2433,10 +2287,7 @@
       <c r="H16" t="n">
         <v>65</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80635&amp;msource=Msearch_colligation</t>
         </is>
@@ -2473,10 +2324,7 @@
       <c r="H17" t="n">
         <v>78</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80789&amp;msource=Msearch_colligation</t>
         </is>
@@ -2508,15 +2356,12 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
         </is>
@@ -2548,15 +2393,12 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>10697</v>
+        <v>10712</v>
       </c>
       <c r="H19" t="n">
         <v>0.1</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
         </is>
@@ -2588,15 +2430,12 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10718</v>
+        <v>10724</v>
       </c>
       <c r="H20" t="n">
         <v>65</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
         </is>
@@ -2633,10 +2472,7 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81116&amp;msource=Msearch_colligation</t>
         </is>
@@ -2673,10 +2509,7 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81100&amp;msource=Msearch_colligation</t>
         </is>
@@ -2713,10 +2546,7 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81119&amp;msource=Msearch_colligation</t>
         </is>
@@ -2753,10 +2583,7 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81118&amp;msource=Msearch_colligation</t>
         </is>
@@ -2793,10 +2620,7 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81120&amp;msource=Msearch_colligation</t>
         </is>
@@ -2833,10 +2657,7 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81114&amp;msource=Msearch_colligation</t>
         </is>
@@ -2854,7 +2675,6 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2868,7 +2688,6 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2887,7 +2706,6 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
